--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E62F56-37CE-40D1-B89B-7FDAB0CC2F9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59C8B7-DC79-4E51-8A42-5EE1D6799BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7635" activeTab="1" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7635" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +478,19 @@
         <v>43481</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+7</f>
+        <v>43482</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4+7</f>
+        <v>43488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED602EC1-C05E-4835-9E2A-E9BA7DB822C3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59C8B7-DC79-4E51-8A42-5EE1D6799BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D11271-E660-4629-8BEF-10B0BC789FA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7635" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +489,19 @@
       <c r="C5" s="1">
         <f>C4+7</f>
         <v>43488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5+7</f>
+        <v>43489</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C5+7</f>
+        <v>43495</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D11271-E660-4629-8BEF-10B0BC789FA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC2CA0C-B53A-4AAF-B1C6-EC37E9AE265F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7635" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +470,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>B3+7</f>
+        <f t="shared" ref="B4:C6" si="0">B3+7</f>
         <v>43475</v>
       </c>
       <c r="C4" s="1">
-        <f>C3+7</f>
+        <f t="shared" si="0"/>
         <v>43481</v>
       </c>
     </row>
@@ -483,11 +483,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>B4+7</f>
+        <f t="shared" si="0"/>
         <v>43482</v>
       </c>
       <c r="C5" s="1">
-        <f>C4+7</f>
+        <f t="shared" si="0"/>
         <v>43488</v>
       </c>
     </row>
@@ -496,12 +496,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>B5+7</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="C6" s="1">
-        <f>C5+7</f>
+        <f t="shared" si="0"/>
         <v>43495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7" si="1">B6+7</f>
+        <v>43496</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7" si="2">C6+7</f>
+        <v>43502</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC2CA0C-B53A-4AAF-B1C6-EC37E9AE265F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FBBD41-4302-4C06-A862-1A4A3A7792B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,15 +506,44 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <f>A6+1</f>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7" si="1">B6+7</f>
+        <f t="shared" ref="B7:B9" si="1">B6+7</f>
         <v>43496</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7" si="2">C6+7</f>
+        <f t="shared" ref="C7:C9" si="2">C6+7</f>
         <v>43502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>43503</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>43510</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>43516</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FBBD41-4302-4C06-A862-1A4A3A7792B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E54AB9-5F0C-4756-B282-4040AB1E010A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,11 +510,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B9" si="1">B6+7</f>
+        <f t="shared" ref="B7:B10" si="1">B6+7</f>
         <v>43496</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C9" si="2">C6+7</f>
+        <f t="shared" ref="C7:C10" si="2">C6+7</f>
         <v>43502</v>
       </c>
     </row>
@@ -544,6 +544,20 @@
       <c r="C9" s="1">
         <f t="shared" si="2"/>
         <v>43516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>43517</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>43523</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E54AB9-5F0C-4756-B282-4040AB1E010A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,11 +510,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B10" si="1">B6+7</f>
+        <f t="shared" ref="B7:B11" si="1">B6+7</f>
         <v>43496</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C10" si="2">C6+7</f>
+        <f t="shared" ref="C7:C11" si="2">C6+7</f>
         <v>43502</v>
       </c>
     </row>
@@ -558,6 +558,20 @@
       <c r="C10" s="1">
         <f t="shared" si="2"/>
         <v>43523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>43524</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>43530</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\Weekly-Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzhang\OneDrive - Travelzoo\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3BA84270-EE12-43D5-8091-BD41151F0F3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,11 +510,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B11" si="1">B6+7</f>
+        <f t="shared" ref="B7:B12" si="1">B6+7</f>
         <v>43496</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C11" si="2">C6+7</f>
+        <f t="shared" ref="C7:C12" si="2">C6+7</f>
         <v>43502</v>
       </c>
     </row>
@@ -572,6 +572,20 @@
       <c r="C11" s="1">
         <f t="shared" si="2"/>
         <v>43530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>43531</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>43537</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzhang\OneDrive - Travelzoo\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3BA84270-EE12-43D5-8091-BD41151F0F3E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{182FDBA9-0862-4863-9A4C-CDAA05EE49E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,86 +506,100 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" ref="A7:A12" si="1">A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B12" si="1">B6+7</f>
+        <f t="shared" ref="B7:B13" si="2">B6+7</f>
         <v>43496</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C12" si="2">C6+7</f>
+        <f t="shared" ref="C7:C13" si="3">C6+7</f>
         <v>43502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43503</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43510</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43516</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43517</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43523</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43524</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43530</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43531</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13" si="4">A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="2"/>
-        <v>43537</v>
+        <v>43538</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="3"/>
+        <v>43544</v>
       </c>
     </row>
   </sheetData>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzhang\OneDrive - Travelzoo\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{182FDBA9-0862-4863-9A4C-CDAA05EE49E8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{11560E49-BD0D-42B9-BFD6-0391A01FF521}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,166 +441,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C2" s="1">
-        <v>43467</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>C2+1</f>
-        <v>43468</v>
-      </c>
-      <c r="C3" s="1">
-        <f>B3+6</f>
-        <v>43474</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:C6" si="0">B3+7</f>
-        <v>43475</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>43481</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>43482</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>43488</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>43489</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>43495</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ref="A7:A12" si="1">A6+1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B13" si="2">B6+7</f>
-        <v>43496</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:C13" si="3">C6+7</f>
-        <v>43502</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="2"/>
-        <v>43503</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="3"/>
-        <v>43509</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="2"/>
-        <v>43510</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="3"/>
-        <v>43516</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="2"/>
-        <v>43517</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="3"/>
-        <v>43523</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="2"/>
-        <v>43524</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="3"/>
-        <v>43530</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="2"/>
-        <v>43531</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="3"/>
-        <v>43537</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ref="A13" si="4">A12+1</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="2"/>
-        <v>43538</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="3"/>
-        <v>43544</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED602EC1-C05E-4835-9E2A-E9BA7DB822C3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzhang\OneDrive - Travelzoo\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{11560E49-BD0D-42B9-BFD6-0391A01FF521}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DDE5F246-6CAD-42CD-91C5-D13081A51904}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C6775B-5349-4E6E-91AA-63F7F78CEA04}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,36 +451,115 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <f>A2+1</f>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43559</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2+7</f>
+        <v>43565</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3+7</f>
+        <v>43566</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C10" si="1">C3+7</f>
+        <v>43572</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B10" si="2">B4+7</f>
+        <v>43573</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>43579</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>43580</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>43586</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>43587</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>43593</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>43594</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>43600</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>43601</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>43607</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>43608</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>43614</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -511,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED602EC1-C05E-4835-9E2A-E9BA7DB822C3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Week_Settings_DB.xlsx
+++ b/Week_Settings_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzhang\OneDrive - Travelzoo\Project\Weekly-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DDE5F246-6CAD-42CD-91C5-D13081A51904}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{95D34F63-FF6F-4462-9A3B-2AA81A814C9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EE63070B-2CEA-4265-A086-4E934DA297D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DBF33FA-BF1C-47DC-ACE3-B863258BACB6}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>16</v>
       </c>
       <c r="B4" s="1">
@@ -473,7 +473,7 @@
         <v>43566</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C10" si="1">C3+7</f>
+        <f t="shared" ref="C4:C14" si="1">C3+7</f>
         <v>43572</v>
       </c>
     </row>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B10" si="2">B4+7</f>
+        <f t="shared" ref="B5:B14" si="2">B4+7</f>
         <v>43573</v>
       </c>
       <c r="C5" s="1">
@@ -562,20 +562,60 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>43615</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>43621</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>43622</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>43628</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>43629</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>43635</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>43636</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>43642</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
